--- a/public/database/Clientes.xlsx
+++ b/public/database/Clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D6A56-5176-4087-BFC7-A0B35F206BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF9FEA3-92A0-4F80-89C7-921B843F937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68F4056-0D45-4BC6-8B04-16C26C5398A7}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{D68F4056-0D45-4BC6-8B04-16C26C5398A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>www.ingsnt.cl</t>
   </si>
   <si>
-    <t>Tito</t>
-  </si>
-  <si>
     <t>valor</t>
   </si>
   <si>
@@ -102,13 +99,16 @@
     <t>correo</t>
   </si>
   <si>
-    <t>aguileraignacio1992@gmail.com</t>
-  </si>
-  <si>
     <t>Sntcontactos@gmail.com</t>
   </si>
   <si>
     <t>aguilera.matias.salinas@gmail.com</t>
+  </si>
+  <si>
+    <t>Roberto Araya</t>
+  </si>
+  <si>
+    <t>Maivelynn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -494,14 +494,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B6F27-5EFA-4ABC-AF87-8DE32F38EB28}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
@@ -521,25 +521,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -559,13 +559,13 @@
         <v>56936300432</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2">
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>56922292189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -619,13 +619,13 @@
         <v>56922292189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4">
@@ -637,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -649,13 +649,13 @@
         <v>56999440746</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5">

--- a/public/database/Clientes.xlsx
+++ b/public/database/Clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF9FEA3-92A0-4F80-89C7-921B843F937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6EF00B-7E6F-44AC-B02A-2A87603AE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{D68F4056-0D45-4BC6-8B04-16C26C5398A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68F4056-0D45-4BC6-8B04-16C26C5398A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>idCliente</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Maivelynn@gmail.com</t>
+  </si>
+  <si>
+    <t>logoCliente</t>
+  </si>
+  <si>
+    <t>https://www.ivelpink.cl/logo-ivelpink-correo.png</t>
+  </si>
+  <si>
+    <t>https://sifg.cl/logo-sifg-correo.png</t>
+  </si>
+  <si>
+    <t>https://masautomatizacion.cl/logo-masautomatizacion.jpg</t>
+  </si>
+  <si>
+    <t>https://ingsnt.cl/logo-ingsnt-correo-white.webp</t>
   </si>
 </sst>
 </file>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B6F27-5EFA-4ABC-AF87-8DE32F38EB28}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,9 +523,10 @@
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="50.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +557,11 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -571,8 +590,11 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -601,8 +623,11 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -631,8 +656,11 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -661,14 +689,17 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E8" s="7"/>
     </row>
   </sheetData>
@@ -685,6 +716,10 @@
     <hyperlink ref="F5" r:id="rId10" display="mailto:Sntcontactos@gmail.com" xr:uid="{8FF307E5-8E1B-419E-A898-E141CA46693F}"/>
     <hyperlink ref="F3" r:id="rId11" display="https://mail.google.com/mail/?view=cm&amp;to=aguilera.matias.salinas@gmail.com" xr:uid="{1DA0337A-3992-4EBC-8282-C04D2DFA5384}"/>
     <hyperlink ref="F4" r:id="rId12" display="https://mail.google.com/mail/?view=cm&amp;to=aguilera.matias.salinas@gmail.com" xr:uid="{D76FD511-7009-4350-BA88-FF12C9085422}"/>
+    <hyperlink ref="K3" r:id="rId13" xr:uid="{D8963E26-AFA0-4EB1-B3A0-CC0A9451E838}"/>
+    <hyperlink ref="K2" r:id="rId14" xr:uid="{572F70D8-445F-4D7C-B602-FF9C6AC83A8F}"/>
+    <hyperlink ref="K4" r:id="rId15" xr:uid="{2D2540DC-1105-4C63-AB0A-F3EC366619B0}"/>
+    <hyperlink ref="K5" r:id="rId16" xr:uid="{1CB4C842-7D73-4709-A753-07DD41117918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/database/Clientes.xlsx
+++ b/public/database/Clientes.xlsx
@@ -1,40 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6EF00B-7E6F-44AC-B02A-2A87603AE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3DF677-78A9-478E-9BBF-9ED678D51996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68F4056-0D45-4BC6-8B04-16C26C5398A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Usuarios!$A$1:$K$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>idCliente</t>
   </si>
@@ -45,97 +34,130 @@
     <t>sitioWeb</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>pagado</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>fechaPago</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>logoCliente</t>
+  </si>
+  <si>
+    <t>Mi amorcito</t>
+  </si>
+  <si>
+    <t>ivelpink.cl</t>
+  </si>
+  <si>
     <t>www.ivelpink.cl</t>
   </si>
   <si>
-    <t>pagado</t>
-  </si>
-  <si>
-    <t>Mi amorcito</t>
+    <t>ivelpink.cl@gmail.com</t>
+  </si>
+  <si>
+    <t>$10.000</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>https://www.ivelpink.cl/logo-ivelpink-correo.png</t>
+  </si>
+  <si>
+    <t>Matias Aguilera</t>
+  </si>
+  <si>
+    <t>masautomatizacion.cl</t>
   </si>
   <si>
     <t>www.masautomatizacion.cl</t>
   </si>
   <si>
-    <t>Matias Aguilera</t>
+    <t>aguilera.matias.salinas@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>https://masautomatizacion.cl/logo-masautomatizacion.jpg</t>
+  </si>
+  <si>
+    <t>sifg.cl</t>
   </si>
   <si>
     <t>www.sifg.cl</t>
   </si>
   <si>
+    <t>https://sifg.cl/logo-sifg-correo.png</t>
+  </si>
+  <si>
+    <t>Roberto Araya</t>
+  </si>
+  <si>
+    <t>ingsnt.cl</t>
+  </si>
+  <si>
     <t>www.ingsnt.cl</t>
   </si>
   <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>$10.000</t>
-  </si>
-  <si>
-    <t>fechaPago</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>ivelpink.cl</t>
-  </si>
-  <si>
-    <t>masautomatizacion.cl</t>
-  </si>
-  <si>
-    <t>sifg.cl</t>
-  </si>
-  <si>
-    <t>ingsnt.cl</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
     <t>Sntcontactos@gmail.com</t>
   </si>
   <si>
-    <t>aguilera.matias.salinas@gmail.com</t>
-  </si>
-  <si>
-    <t>Roberto Araya</t>
-  </si>
-  <si>
-    <t>Maivelynn@gmail.com</t>
-  </si>
-  <si>
-    <t>logoCliente</t>
-  </si>
-  <si>
-    <t>https://www.ivelpink.cl/logo-ivelpink-correo.png</t>
-  </si>
-  <si>
-    <t>https://sifg.cl/logo-sifg-correo.png</t>
-  </si>
-  <si>
-    <t>https://masautomatizacion.cl/logo-masautomatizacion.jpg</t>
+    <t>2025-08-07</t>
   </si>
   <si>
     <t>https://ingsnt.cl/logo-ingsnt-correo-white.webp</t>
+  </si>
+  <si>
+    <t>mastracker.cl</t>
+  </si>
+  <si>
+    <t>www.mastracker.cl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://mastracker.cl/logo-masautomatizacion.jpg</t>
+  </si>
+  <si>
+    <t>Ricardo Garrido</t>
+  </si>
+  <si>
+    <t>investigadores-privados.cl</t>
+  </si>
+  <si>
+    <t>www.investigadores-privados.cl</t>
+  </si>
+  <si>
+    <t>ag.investigadoresprivados@gmail.com</t>
+  </si>
+  <si>
+    <t>https://investigadores-privados.cl/logo-investigadores.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,29 +166,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,31 +208,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -506,221 +549,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B6F27-5EFA-4ABC-AF87-8DE32F38EB28}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>56936300432</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="1">
+        <v>56922292189</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56922292189</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56999440746</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1">
+        <v>56922292189</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6">
-        <v>56936300432</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1">
+        <v>56946873014</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>56922292189</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>56922292189</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6">
-        <v>56999440746</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="7"/>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1E3F8DA0-F457-4A30-8CCA-CB3AC9AF4FF3}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{2FCC9AAC-CD88-4B63-A0C0-C85701B896BE}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{D9D5EBA3-7D36-4C61-A467-062AF2EF0A31}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{8A73A721-E11A-4E88-A3BF-B802E535E7A2}"/>
-    <hyperlink ref="C2" r:id="rId5" display="www.ivelpink.cl" xr:uid="{EA0DF13A-91FE-49FB-B60E-D6AF0360D587}"/>
-    <hyperlink ref="C3" r:id="rId6" display="www.masautomatizacion.cl" xr:uid="{0C52659F-2270-4E2C-A215-29CE2B9F3E75}"/>
-    <hyperlink ref="C4" r:id="rId7" display="www.sifg.cl" xr:uid="{6741B734-AD71-4E3F-AAC2-B258FB7A638C}"/>
-    <hyperlink ref="C5" r:id="rId8" display="www.ingsnt.cl" xr:uid="{FA10C9D6-2750-4E08-95F4-32EC00115EAD}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{B37CD5BC-DEEA-4E89-B462-7C41DDA785BE}"/>
-    <hyperlink ref="F5" r:id="rId10" display="mailto:Sntcontactos@gmail.com" xr:uid="{8FF307E5-8E1B-419E-A898-E141CA46693F}"/>
-    <hyperlink ref="F3" r:id="rId11" display="https://mail.google.com/mail/?view=cm&amp;to=aguilera.matias.salinas@gmail.com" xr:uid="{1DA0337A-3992-4EBC-8282-C04D2DFA5384}"/>
-    <hyperlink ref="F4" r:id="rId12" display="https://mail.google.com/mail/?view=cm&amp;to=aguilera.matias.salinas@gmail.com" xr:uid="{D76FD511-7009-4350-BA88-FF12C9085422}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{D8963E26-AFA0-4EB1-B3A0-CC0A9451E838}"/>
-    <hyperlink ref="K2" r:id="rId14" xr:uid="{572F70D8-445F-4D7C-B602-FF9C6AC83A8F}"/>
-    <hyperlink ref="K4" r:id="rId15" xr:uid="{2D2540DC-1105-4C63-AB0A-F3EC366619B0}"/>
-    <hyperlink ref="K5" r:id="rId16" xr:uid="{1CB4C842-7D73-4709-A753-07DD41117918}"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{E85EC306-C209-4A28-8E14-C398A4AD483F}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{8D3D9A9A-08AD-419A-9244-CCF4EBAD9106}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:K6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/database/Clientes.xlsx
+++ b/public/database/Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3DF677-78A9-478E-9BBF-9ED678D51996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42029AA-325E-4E84-9F3D-36172786CFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>ag.investigadoresprivados@gmail.com</t>
   </si>
   <si>
-    <t>https://investigadores-privados.cl/logo-investigadores.jpg</t>
+    <t>https://investigadores-privados.cl/logo-investigaciones-1.png</t>
   </si>
 </sst>
 </file>
@@ -552,11 +552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
@@ -569,7 +569,7 @@
     <col min="11" max="11" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -744,7 +744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -779,7 +779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -817,8 +817,8 @@
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" xr:uid="{E85EC306-C209-4A28-8E14-C398A4AD483F}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{8D3D9A9A-08AD-419A-9244-CCF4EBAD9106}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{8D3D9A9A-08AD-419A-9244-CCF4EBAD9106}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{E85EC306-C209-4A28-8E14-C398A4AD483F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
